--- a/Base/Teams/Panthers/Players Stats.xlsx
+++ b/Base/Teams/Panthers/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Panthers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Panthers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342A7875-1712-4495-8C52-4BD1579DA5DC}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C5A441-7B1F-42D2-97C7-4D0F7999FDFC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>A.Erickson</t>
+  </si>
+  <si>
+    <t>R.Bonnafon</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,6 +801,38 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -810,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/Base/Teams/Panthers/Players Stats.xlsx
+++ b/Base/Teams/Panthers/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Panthers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C5A441-7B1F-42D2-97C7-4D0F7999FDFC}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B2CBCFE-4D98-40B1-BBFD-F7A06A95003B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>R.Bonnafon</t>
+  </si>
+  <si>
+    <t>C.Saunders</t>
   </si>
 </sst>
 </file>
@@ -638,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,10 +846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,6 +1142,38 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
